--- a/spreadsheet/macrofree/aks_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ja.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -3713,7 +3678,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azue NAT ゲートウェイをアウトバウンドタイプとして使用して、エグレス トラフィックをスケーリングする</t>
+          <t>送信トラフィックをスケーリングするための送信の種類として Azure NAT ゲートウェイを使用する</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -5773,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5819,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5864,7 +5829,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5910,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -8953,20 +8918,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -8978,123 +9041,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aks_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>カナリアまたはブルー/グリーンのデプロイを使用する</t>
+          <t>カナリアまたはブルー/グリーン デプロイを使用する</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>AKS Windows ワークロードに必要な場合は、ホスト プロセス コンテナーを使用できます。</t>
+          <t>AKS Windows ワークロードに必要な場合は、ホスト プロセス コンテナーを使用できます</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>イベント駆動型ワークロードを実行している場合は KEDA を使用する</t>
+          <t>イベント駆動型ワークロードを実行する場合は KEDA を使用します</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
+          <t>Dapr を使用してマイクロサービスの開発を容易にする</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>障害復旧</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>DRテストを定期的にスケジュールして実行する</t>
+          <t>DR テストを定期的にスケジュールして実行する</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンが Azure リージョンでサポートされている場合は、その可用性ゾーンを使用する</t>
+          <t>可用性ゾーンが Azure リージョンでサポートされている場合は、それらを使用します</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>SLA でサポートされる AKS オファリングを使用する</t>
+          <t>SLA に基づく AKS オファリングを使用する</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>ポッドとデプロイ定義で中断バジェットを使用する</t>
+          <t>ポッドとデプロイの定義で中断予算を使用する</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>プライベートレジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョンレプリケーションを構成します</t>
+          <t>プライベート・レジストリーを使用する場合は、イメージを複数のリージョンに保管するようにリージョン・レプリケーションを構成します</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>kubecost などの外部アプリケーションを使用して、さまざまなユーザーにコストを割り当てる</t>
+          <t>kubecost などの外部アプリケーションを使用して、さまざまなユーザーにコストを割り当てます</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ノードプールスナップショットをスケーリングします</t>
+          <t>必要に応じて、ノードプールのスナップショットをスケーリングします</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS クラスターでマルチインスタンス分割 GPU を使用する</t>
+          <t>必要に応じて、AKS クラスターでマルチインスタンス パーティショニング GPU を使用する</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>開発/テスト クラスターを実行している場合は、ノードプールの開始/停止を使用します</t>
+          <t>開発/テスト クラスターを実行している場合は、ノード プールの開始/停止を使用します</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>ユーザー/システムノードプールによるコントロールプレーンからのアプリケーションの分離</t>
+          <t>ユーザー/システムノードプールを使用してコントロールプレーンからアプリケーションを分離する</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>システムノードプールにtaintを追加して専用にする</t>
+          <t>システムノードプールにtaintを追加して専用にします</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>イメージにプライベート レジストリ (ACR など) を使用する</t>
+          <t>イメージのプライベート レジストリ (ACR など) を使用する</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて FIPS を設定する</t>
+          <t>必要に応じて FIPS を構成する</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
+          <t>CSI シークレット ストア ドライバーを使用してシークレットを Azure Key Vault に格納する</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>クラスターにサービス プリンシパルを使用する場合は、資格情報を定期的に更新します (四半期ごとなど)。</t>
+          <t>クラスターにサービス プリンシパルを使用している場合は、資格情報を定期的に (四半期ごとなど) 更新します</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、キー管理サービス etcd 暗号化を追加します。</t>
+          <t>必要に応じて、キー管理サービス etcd 暗号化を追加します</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS のコンフィデンシャル コンピューティングの使用を検討する</t>
+          <t>必要に応じて、AKS のコンフィデンシャル コンピューティングの使用を検討してください</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>コンテナーに Defender を使用することを検討してください</t>
+          <t>コンテナーに Defender の使用を検討する</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>管理者 kubeconfig (資格情報の取得 --admin) へのアクセスを制限する</t>
+          <t>管理者へのアクセスを制限する kubeconfig (資格情報の取得 --admin)</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes で RBAC 特権を制限するために名前空間を使用する</t>
+          <t>名前空間を使用して Kubernetes の RBAC 特権を制限する</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>POD ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します。</t>
+          <t>POD ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>AKS の非対話型ログインの場合は、kubelogin (プレビュー) を使用します。</t>
+          <t>AKS の非対話型ログインの場合は、kubelogin (プレビュー) を使用します</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて構成する ジャストインタイムクラスターアクセス</t>
+          <t>必要に応じて構成する ジャストインタイム クラスター アクセス</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS の AAD 条件付きアクセスを構成する</t>
+          <t>AKS の AAD 条件付きアクセスが必要な場合は構成する</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Windows AKS ワークロードに必要な場合は、gMSA を構成します。</t>
+          <t>Windows AKS ワークロードで必要な場合は、gMSA を構成します</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>より細かく制御するには、マネージドKubeletアイデンティティの使用を検討してください</t>
+          <t>より細かく制御するには、マネージド Kubelet ID の使用を検討してください</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>AGIC を使用している場合は、クラスタ間で AppGW を共有しないでください。</t>
+          <t>AGIC を使用している場合は、クラスタ間で AppGW を共有しないでください</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Windows ワークロードの場合は、高速ネットワークを使用する</t>
+          <t>Windowsワークロードの場合は、高速ネットワークを使用します</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>標準のALBを使用します(基本的なALBとは対照的に)</t>
+          <t>標準のALBを使用する(基本的なALBとは対照的に)</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードプールに異なるサブネットを使用することを検討してください</t>
+          <t>Azure CNI を使用する場合は、ノードプールに異なるサブネットを使用することを検討してください</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイント (推奨) または仮想ネットワーク サービス エンドポイントを使用してクラスターから PaaS サービスにアクセスする</t>
+          <t>プライベート エンドポイント (推奨) または仮想ネットワーク サービス エンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3262,12 +3262,12 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>は</t>
+          <t>ハ</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド接続が必要な場合は、2xER または ER+VPN を使用して可用性を向上させます</t>
+          <t>ハイブリッド接続が必要な場合は、可用性を高めるために 2xER または ER+VPN を使用します</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードあたりのポッドの最大数を考慮して、それに応じてサブネットのサイズを設定します</t>
+          <t>Azure CNI を使用する場合は、ノードあたりのポッドの最大数を考慮して、それに応じてサブネットのサイズを設定します</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、最大ポッド/ノード数 (既定値は 30) を確認します。</t>
+          <t>Azure CNI を使用している場合は、最大ポッド/ノード (既定値は 30) を確認します</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3442,17 +3442,17 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>プライベート IP ロードバランサー サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します。</t>
+          <t>プライベート IP ロードバランサー サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、ポッドへのネットワーク アクセスも可能になる可能性があります (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、この IP のみをアプリ クライアントで使用できる必要があります。別の理由は、AKS サブネット内の IP アドレスが不足しているリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
+          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、ポッドへのネットワーク アクセスも開かれる可能性があります (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、このサブネットのみをアプリ クライアントで使用できる必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>それに応じてサービスのIPアドレス範囲のサイズを設定します(クラスターのスケーラビリティが制限されます)</t>
+          <t>それに応じてサービス IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS でノードごとにパブリック IP を構成します</t>
+          <t>必要に応じて、AKS のノードごとにパブリック IP を構成します</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに Web ベースのアプリを公開する</t>
+          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに、Web ベースのアプリを公開します</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>送信トラフィックをスケーリングするための送信の種類として Azure NAT ゲートウェイを使用する</t>
+          <t>Azure NAT ゲートウェイを送信タイプとして使用してエグレス トラフィックをスケーリングする</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI IP の枯渇を回避するために IP の動的割り当てを使用する</t>
+          <t>Azure CNI IP の枯渇を回避するために、IP の動的割り当てを使用する</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>AzFW/NVA を使用してエグレス トラフィックをフィルター処理します (セキュリティ要件で義務付けられている場合)</t>
+          <t>セキュリティ要件で義務付けられている場合は、AzFW/NVA を使用してエグレス トラフィックをフィルター処理します</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限する</t>
+          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限します</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>要件で義務付けられている場合は、プライベートクラスターを使用する</t>
+          <t>プライベート クラスターを使用する (要件で義務付けられている場合)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Windows 2019 および 2022 AKS ノードの場合、Calico ネットワーク ポリシーを使用できます</t>
+          <t>Windows 2019 および 2022 AKS ノードでは、Calico ネットワーク ポリシーを使用できます</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシーを使用してクラスター内のセキュリティを強化する</t>
+          <t>Kubernetes ネットワーク ポリシーを使用してクラスタ内のセキュリティを強化する</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Web ワークロード (UI または API) に WAF を使用する</t>
+          <t>ウェブ ワークロード (UI または API) に WAF を使用する</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、会社の HTTP プロキシを追加します。</t>
+          <t>必要に応じて、会社のHTTPプロキシを追加します</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>高度なマイクロサービス通信管理にサービスメッシュを使用することを検討する</t>
+          <t>高度なマイクロサービス通信管理にサービス メッシュを使用することを検討する</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>最も重要なメトリックに関するアラートを構成します (推奨事項については、「コンテナーの分析情報」を参照してください)</t>
+          <t>最も重要なメトリックでアラートを構成します (推奨事項については、「コンテナーの分析情報」を参照してください)</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure アドバイザーでクラスターに関する推奨事項を定期的に確認する</t>
+          <t>Azure アドバイザーでクラスターに関する推奨事項を定期的に確認してください</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>VSCODE + kubeadvisorなどのインテリジェントなテキストエディタを使用してYAMLマニフェストを開発します</t>
+          <t>YAML マニフェストを vscode+kubeadvisor などのインテリジェントなテキスト エディターで開発する</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes バージョンを定期的に (四半期ごとなど) アップグレードするか、AKS 自動アップグレード機能を使用する定期的なプロセスを用意する</t>
+          <t>定期的に (たとえば、四半期ごとに) kubernetes バージョンをアップグレードする定期的なプロセスを用意するか、AKS の自動アップグレード機能を使用します</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>ノード イメージのアップグレードを使用していない場合は、Linux ノードのアップグレードに kured を使用します。</t>
+          <t>ノードイメージのアップグレードを使用していない場合は、Linuxノードのアップグレードにkuredを使用します</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>クラスタノードイメージを定期的に(毎週など)アップグレードする定期的なプロセスを用意する</t>
+          <t>クラスター ノード イメージを定期的に (毎週など) アップグレードする定期的なプロセスを用意する</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするための gitops を検討する</t>
+          <t>gitopsを検討して、アプリケーションまたはクラスター構成を複数のクラスターにデプロイします</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>ウィンドウ ノードを汚染する</t>
+          <t>ウィンドウズノードを汚染する</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Windowsコンテナのパッチレベルをホストパッチレベルと同期させる</t>
+          <t>Windows コンテナのパッチ レベルをホストのパッチ レベルと同期させる</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>マスター ログ (API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
+          <t>マスター ログ (別名 API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>時間的制約のないワークロードのスポットノードプールを検討する</t>
+          <t>時間の影響を受けないワークロードのスポット ノード プールを検討する</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>コンテナインサイト(またはPrometheusなどの他のツール)を使用してクラスターメトリクスを監視する</t>
+          <t>コンテナー インサイト (または Prometheus などの他のツール) を使用してクラスター メトリックを監視する</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Container Insights (または Telegraf/ElasticSearch などの他のツール) を使用してクラスター ログを保存および分析します。</t>
+          <t>クラスター ログをコンテナー インサイト (または Telegraf/ElasticSearch などの他のツール) で保存および分析する</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視する</t>
+          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視します</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>OS ディスク内の I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生する可能性があり、通常はノードが NotReady と宣言されることになります。</t>
+          <t>OS ディスクの I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生する可能性があり、通常はノードが NotReady と宣言されます</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>AzFW/NVA でエグレス フィルタリングを使用していない場合は、標準の ALB 割り当て SNAT ポートを監視します。</t>
+          <t>AzFW/NVA でエグレス フィルター処理を使用していない場合は、標準の ALB によって割り当てられた SNAT ポートを監視します</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>ポッド仕様で要求と制限を構成する</t>
+          <t>ポッドの仕様で要求と制限を構成する</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>必要に応じてポッド水平オートスケーラーを使用する</t>
+          <t>必要に応じて水平ポッド オートスケーラーを使用する</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5663,12 +5663,12 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>大きすぎたり小さすぎたりしない適切なノードサイズを検討する</t>
+          <t>大きすぎたり小さすぎたりしない適切なノードサイズを検討してください</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
+          <t>ノードが大きいほど、エフェメラル ディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>スケーラビリティが必要な場合は、5000 を超えるノードを追加することを検討してください</t>
+          <t>スケーラビリティのために 5,000 を超えるノードが必要な場合は、追加の AKS クラスターの使用を検討してください</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>AKS オートメーションのためにイベント グリッド イベントをサブスクライブすることを検討する</t>
+          <t>AKS オートメーションのイベント グリッド イベントのサブスクライブを検討する</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>AKS クラスターで長時間実行される操作の場合は、イベントの終了を検討する</t>
+          <t>AKS クラスターで長時間実行される操作の場合は、イベントの終了を検討してください</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS ノードに Azure 専用ホストの使用を検討する</t>
+          <t>必要に応じて、AKS ノードに Azure 専用ホストを使用することを検討してください</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>非エフェメラル ディスクの場合、複数のポッドを実行するために高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高い IOPS とより大きな OS ディスクを使用します。</t>
+          <t>非エフェメラル ディスクの場合、複数のポッドを実行するために高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高 IOPS とより大きな OS ディスクを使用します</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>クラスターに状態を保持することは避け、データを外部 (AzStorage、AzSQL、Cosmos など) に格納します。</t>
+          <t>クラスター内に状態を保持することは避け、データを外部 (AzStorage、AzSQL、Cosmos など) に格納します</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください。</t>
+          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください。</t>
+          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ確認されていません</t>
+          <t>このチェックはまだ検討されていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在のデザインには適用できません</t>
+          <t>現在のデザインには適用されません</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/aks_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>カナリアまたはブルー/グリーン デプロイを使用する</t>
+          <t>カナリアまたはブルー/グリーンデプロイを使用する</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>AKS Windows ワークロードに必要な場合は、ホスト プロセス コンテナーを使用できます</t>
+          <t>AKS Windows ワークロードで必要な場合は、HostProcess コンテナーを使用できます</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>イベント駆動型ワークロードを実行する場合は KEDA を使用します</t>
+          <t>イベント ドリブン ワークロードを実行する場合は KEDA を使用します</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Dapr を使用してマイクロサービスの開発を容易にする</t>
+          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1289,17 +1289,17 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>障害復旧</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>DR テストを定期的にスケジュールして実行する</t>
+          <t>DRテストを定期的にスケジュールして実行する</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンが Azure リージョンでサポートされている場合は、それらを使用します</t>
+          <t>Availability Zones は、Azure リージョンでサポートされている場合は使用します</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>SLA に基づく AKS オファリングを使用する</t>
+          <t>SLA でサポートされる AKS オファリングを使用する</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>ポッドとデプロイの定義で中断予算を使用する</t>
+          <t>ポッドとデプロイ定義での Disruption Budgets の使用</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>プライベート・レジストリーを使用する場合は、イメージを複数のリージョンに保管するようにリージョン・レプリケーションを構成します</t>
+          <t>プライベートレジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョンレプリケーションを構成します</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ノードプールのスナップショットをスケーリングします</t>
+          <t>スケールダウンモードを使用してノードを削除/割り当て解除する</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1692,7 +1692,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1713,13 +1713,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>スケールダウンモードを使用してノードを削除/割り当て解除する</t>
+          <t>必要に応じて、AKS クラスターで複数インスタンスの分割 GPU を使用する</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1738,7 +1738,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1759,13 +1759,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS クラスターでマルチインスタンス パーティショニング GPU を使用する</t>
+          <t>Dev/Test クラスターを実行している場合は、NodePool Start/Stop を使用します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1795,23 +1795,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>コストガバナンス</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>開発/テスト クラスターを実行している場合は、ノード プールの開始/停止を使用します</t>
+          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
+          <t>ユーザー/システムノードプールを使用してコントロールプレーンからアプリケーションを分離する</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1868,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1876,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>ユーザー/システムノードプールを使用してコントロールプレーンからアプリケーションを分離する</t>
+          <t>システム ノードプールにテイントを追加して専用にする</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1943,13 +1943,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>システムノードプールにtaintを追加して専用にします</t>
+          <t>イメージにはプライベート レジストリ (ACR など) を使用する</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1960,14 +1960,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://learn.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>イメージのプライベート レジストリ (ACR など) を使用する</t>
+          <t>イメージをスキャンして脆弱性を検出する</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2005,14 +2005,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>イメージの脆弱性をスキャンする</t>
+          <t>Azure Security Center を使用してセキュリティ体制の脆弱性を検出する</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2057,7 +2057,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2078,13 +2078,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Azure セキュリティ センターを使用してセキュリティ体制の脆弱性を検出する</t>
+          <t>必要に応じて、FIPS を構成します</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2095,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2123,13 +2123,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて FIPS を構成する</t>
+          <t>アプリの分離要件を定義する (名前空間/ノードプール/クラスター)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2140,14 +2140,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2163,18 +2163,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>アプリの分離要件 (名前空間/ノードプール/クラスター) を定義する</t>
+          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2185,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2193,7 +2193,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2214,13 +2214,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>CSI シークレット ストア ドライバーを使用してシークレットを Azure Key Vault に格納する</t>
+          <t>クラスターにサービス プリンシパルを使用する場合は、資格情報を定期的に (四半期ごとなど) 更新します</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2239,7 +2239,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2260,13 +2260,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>クラスターにサービス プリンシパルを使用している場合は、資格情報を定期的に (四半期ごとなど) 更新します</t>
+          <t>必要に応じて、キー管理サービスの etcd 暗号化を追加します</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2277,7 +2277,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2285,7 +2285,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、キー管理サービス etcd 暗号化を追加します</t>
+          <t>必要に応じて、Confidential Compute for AKS の使用を検討してください</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2323,7 +2323,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2331,7 +2331,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2352,13 +2352,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS のコンフィデンシャル コンピューティングの使用を検討してください</t>
+          <t>Defender for Containers の使用を検討する</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2369,7 +2369,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2377,7 +2377,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2388,23 +2388,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>コンテナーに Defender の使用を検討する</t>
+          <t>サービス プリンシパルの代わりにマネージド ID を使用するUse managed identities instead of Service Principals</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2423,7 +2423,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2434,7 +2434,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2444,13 +2444,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>サービス プリンシパルの代わりにマネージド ID を使用する</t>
+          <t>認証を AAD と統合する (マネージド統合を使用)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2461,7 +2461,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2469,7 +2469,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2480,7 +2480,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>認証を AAD と統合する (マネージド統合を使用)</t>
+          <t>管理者 kubeconfig へのアクセスを制限する (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2515,7 +2515,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2526,7 +2526,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>管理者へのアクセスを制限する kubeconfig (資格情報の取得 --admin)</t>
+          <t>承認と AAD RBAC の統合</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2553,7 +2553,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2561,7 +2561,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2572,7 +2572,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2582,13 +2582,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>承認を AAD RBAC と統合する</t>
+          <t>Kubernetes で RBAC 特権を制限するために名前空間を使用する</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2599,7 +2599,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2607,7 +2607,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2618,7 +2618,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2628,13 +2628,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>名前空間を使用して Kubernetes の RBAC 特権を制限する</t>
+          <t>POD ID アクセス管理には、Azure AD ワークロード ID (プレビュー) を使用します</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2645,7 +2645,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2653,7 +2653,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2664,7 +2664,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>POD ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します</t>
+          <t>AKS 非対話型ログインの場合は、kubelogin (プレビュー) を使用します</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2699,7 +2699,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2710,7 +2710,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>AKS の非対話型ログインの場合は、kubelogin (プレビュー) を使用します</t>
+          <t>AKS ローカル アカウントを無効にする</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2737,7 +2737,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2745,7 +2745,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2756,7 +2756,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2766,13 +2766,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>AKS ローカル アカウントを無効にする</t>
+          <t>必要に応じて Just-In-Time クラスター アクセスを構成する</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2783,14 +2783,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2801,7 +2801,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて構成する ジャストインタイム クラスター アクセス</t>
+          <t>必要に応じて AKS の AAD 条件付きアクセスを構成する</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2828,7 +2828,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2836,7 +2836,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2847,7 +2847,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>AKS の AAD 条件付きアクセスが必要な場合は構成する</t>
+          <t>Windows AKS ワークロードで必要な場合は、gMSA を構成します</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2874,7 +2874,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2882,7 +2882,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2893,7 +2893,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2903,13 +2903,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Windows AKS ワークロードで必要な場合は、gMSA を構成します</t>
+          <t>より細かく制御するには、マネージドKubelet Identityの使用を検討してください</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2920,14 +2920,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2938,17 +2938,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>より細かく制御するには、マネージド Kubelet ID の使用を検討してください</t>
+          <t>AGIC を使用している場合は、クラスター間で AppGW を共有しないでください</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2965,14 +2965,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2983,7 +2983,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -2993,13 +2993,13 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>AGIC を使用している場合は、クラスタ間で AppGW を共有しないでください</t>
+          <t>AKS Application Routing Add-On を使用しない</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3010,7 +3010,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3018,7 +3018,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3029,7 +3029,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3039,13 +3039,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>AKS アプリケーション ルーティング アドオンを使用しない</t>
+          <t>Windows ワークロードの場合は、高速ネットワークを使用します</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3056,7 +3056,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3064,7 +3064,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3075,7 +3075,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3085,13 +3085,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Windowsワークロードの場合は、高速ネットワークを使用します</t>
+          <t>標準のALBを使用する(基本的なALBとは対照的)</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3102,7 +3102,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3110,7 +3110,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3121,7 +3121,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3131,13 +3131,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>標準のALBを使用する(基本的なALBとは対照的に)</t>
+          <t>Azure CNI を使用する場合は、NodePool に異なるサブネットを使用することを検討してください</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3148,14 +3148,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3166,17 +3166,17 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>おすすめの方法</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用する場合は、ノードプールに異なるサブネットを使用することを検討してください</t>
+          <t>プライベート エンドポイント (推奨) または Virtual Network サービス エンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3193,7 +3193,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3201,7 +3201,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3212,17 +3212,17 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>HAの</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイント (推奨) または仮想ネットワーク サービス エンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
+          <t>ハイブリッド接続が必要な場合は、可用性を高めるために 2xER または ER+VPN を使用します</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3239,14 +3239,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3257,23 +3257,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>ハ</t>
+          <t>IPAM (アドレス管理)</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド接続が必要な場合は、可用性を高めるために 2xER または ER+VPN を使用します</t>
+          <t>要件に最適な CNI ネットワーク プラグインを選択する (Azure CNI を推奨)</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3284,14 +3284,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3302,17 +3302,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>IPAM (アドレス管理)</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>要件に最適な CNI ネットワーク プラグインを選択する (Azure CNI を推奨)</t>
+          <t>Azure CNI を使用する場合は、ノードあたりのポッドの最大数を考慮して、サブネットのサイズを適切に設定します</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3329,14 +3329,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3347,17 +3347,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>IPAM (アドレス管理)</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用する場合は、ノードあたりのポッドの最大数を考慮して、それに応じてサブネットのサイズを設定します</t>
+          <t>Azure CNI を使用している場合は、最大ポッド数/ノード (既定値は 30) を確認します</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3381,7 +3381,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3392,23 +3392,27 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>IPAM (アドレス管理)</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、最大ポッド/ノード (既定値は 30) を確認します</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="n"/>
+          <t>プライベート IP LoadBalancer サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="inlineStr">
+        <is>
+          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、場合によってはポッドへのネットワーク アクセスも開かれます (Azure CNI を使用している場合)。LoadBalancer の IP が別のサブネットにある場合は、この IP のみをアプリ クライアントで使用できる必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
+        </is>
+      </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3419,14 +3423,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3437,27 +3441,23 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>IPAM (アドレス管理)</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>プライベート IP ロードバランサー サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します</t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、ポッドへのネットワーク アクセスも開かれる可能性があります (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、このサブネットのみをアプリ クライアントで使用できる必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
-        </is>
-      </c>
+          <t>それに応じて、サービスの IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)。</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3468,14 +3468,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3486,23 +3486,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>それに応じてサービス IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)</t>
+          <t>必要に応じて、独自のCNIプラグインを追加します</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3513,14 +3513,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3531,7 +3531,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、独自のCNIプラグインを追加します</t>
+          <t>必要に応じて、AKS でノードごとにパブリック IP を構成する</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3558,14 +3558,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3576,23 +3576,23 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS のノードごとにパブリック IP を構成します</t>
+          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに、Web ベースのアプリを公開します</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3603,7 +3603,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3611,7 +3611,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3622,7 +3622,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3632,13 +3632,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに、Web ベースのアプリを公開します</t>
+          <t>エグレス トラフィックをスケーリングするために Azure NAT Gateway を outboundType として使用する</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3657,7 +3657,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3668,7 +3668,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3678,13 +3678,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure NAT ゲートウェイを送信タイプとして使用してエグレス トラフィックをスケーリングする</t>
+          <t>Azure CNI IP の枯渇を回避するために IP の動的割り当てを使用する</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3695,7 +3695,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3703,7 +3703,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3714,23 +3714,23 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI IP の枯渇を回避するために、IP の動的割り当てを使用する</t>
+          <t>セキュリティ要件で義務付けられている場合は、AzFW/NVA を使用してエグレス トラフィックをフィルター処理します</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3741,14 +3741,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3759,7 +3759,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3769,13 +3769,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ要件で義務付けられている場合は、AzFW/NVA を使用してエグレス トラフィックをフィルター処理します</t>
+          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限します</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3786,7 +3786,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -3794,7 +3794,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3805,7 +3805,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3815,13 +3815,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限します</t>
+          <t>要件で必要な場合は、プライベート クラスターを使用します</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3832,7 +3832,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3840,7 +3840,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3851,7 +3851,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3861,13 +3861,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>プライベート クラスターを使用する (要件で義務付けられている場合)</t>
+          <t>Windows 2019 および 2022 AKS ノードでは、Calico ネットワーク ポリシーを使用できます</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3878,7 +3878,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -3886,7 +3886,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3897,7 +3897,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3907,13 +3907,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Windows 2019 および 2022 AKS ノードでは、Calico ネットワーク ポリシーを使用できます</t>
+          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3943,7 +3943,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
+          <t>Kubernetesネットワークポリシーを使用してクラスタ内のセキュリティを強化</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3970,7 +3970,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3978,7 +3978,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3989,7 +3989,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシーを使用してクラスタ内のセキュリティを強化する</t>
+          <t>Web ワークロード (UI または API) に WAF を使用するUse a WAF for a web workloads (UI or API)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4024,7 +4024,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4035,7 +4035,7 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
@@ -4045,13 +4045,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>ウェブ ワークロード (UI または API) に WAF を使用する</t>
+          <t>AKS Virtual Network で DDoS Standard を使用するUse DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4062,7 +4062,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4070,7 +4070,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4081,7 +4081,7 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
@@ -4091,13 +4091,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>AKS 仮想ネットワークで DDoS 標準を使用する</t>
+          <t>必要に応じて、会社の HTTP プロキシを追加します</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4127,7 +4127,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -4137,13 +4137,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、会社のHTTPプロキシを追加します</t>
+          <t>高度なマイクロサービス通信管理にサービスメッシュの使用を検討する</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4154,7 +4154,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4162,7 +4162,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4173,23 +4173,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>警告</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>高度なマイクロサービス通信管理にサービス メッシュを使用することを検討する</t>
+          <t>最も重要なメトリックに関するアラートを構成します (推奨事項については、「Container Insights」を参照してください)</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4200,7 +4200,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4208,7 +4208,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4224,18 +4224,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>警告</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>最も重要なメトリックでアラートを構成します (推奨事項については、「コンテナーの分析情報」を参照してください)</t>
+          <t>Azure Advisor でクラスターの推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4254,7 +4254,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure アドバイザーでクラスターに関する推奨事項を定期的に確認してください</t>
+          <t>AKS 自動証明書のローテーションを有効にする</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4292,7 +4292,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4300,7 +4300,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4321,13 +4321,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>YAML マニフェストを vscode+kubeadvisor などのインテリジェントなテキスト エディターで開発する</t>
+          <t>kubernetes のバージョンを定期的に (四半期ごとなど) アップグレードする定期的なプロセスを行うか、AKS 自動アップグレード機能を使用します</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4338,7 +4338,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4346,7 +4346,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4367,13 +4367,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>AKS の自動証明書のローテーションを有効にする</t>
+          <t>ノードイメージのアップグレードを使用していない場合は、Linuxノードのアップグレードにkuredを使用します</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4384,7 +4384,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
+          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>定期的に (たとえば、四半期ごとに) kubernetes バージョンをアップグレードする定期的なプロセスを用意するか、AKS の自動アップグレード機能を使用します</t>
+          <t>クラスタノードイメージを定期的に(毎週など)アップグレードする定期的なプロセスを用意します</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4430,7 +4430,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4438,7 +4438,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4459,13 +4459,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>ノードイメージのアップグレードを使用していない場合は、Linuxノードのアップグレードにkuredを使用します</t>
+          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするために gitop を検討してください</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4476,7 +4476,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4484,7 +4484,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4505,13 +4505,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>クラスター ノード イメージを定期的に (毎週など) アップグレードする定期的なプロセスを用意する</t>
+          <t>プライベート クラスターで AKS コマンド呼び出しを使用することを検討する</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4522,7 +4522,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4530,7 +4530,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>gitopsを検討して、アプリケーションまたはクラスター構成を複数のクラスターにデプロイします</t>
+          <t>計画されたイベントの場合は、ノードの自動ドレインの使用を検討してください</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4568,7 +4568,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4576,7 +4576,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>プライベート クラスターでの AKS コマンド呼び出しの使用を検討する</t>
+          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「インフラRG」)のオペレーターによって変更が実行されないようにします</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4614,7 +4614,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://learn.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4622,7 +4622,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>計画されたイベントの場合は、ノード自動ドレインの使用を検討してください</t>
+          <t>カスタムノードRG(別名「インフラRG」)名を使用</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4660,7 +4660,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4668,7 +4668,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4689,13 +4689,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「インフラRG」)のオペレーターによって変更が実行されないようにします。</t>
+          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4706,7 +4706,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/faq</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4714,7 +4714,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>カスタムノードRG(別名「インフラRG」)名を使用する</t>
+          <t>Windows ノードのテイント</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4752,7 +4752,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4760,7 +4760,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4781,13 +4781,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください</t>
+          <t>Windows コンテナーのパッチ レベルをホストのパッチ レベルと同期させる</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4798,7 +4798,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -4806,7 +4806,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4827,10 +4827,14 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>ウィンドウズノードを汚染する</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="n"/>
+          <t>マスター ログ (API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>クラスタレベルでの診断設定経由</t>
+        </is>
+      </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
           <t>低い</t>
@@ -4844,7 +4848,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4852,7 +4856,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Windows コンテナのパッチ レベルをホストのパッチ レベルと同期させる</t>
+          <t>必要に応じて、nodePool スナップショットを使用します</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4890,7 +4894,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -4898,7 +4902,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4914,19 +4918,15 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>マスター ログ (別名 API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>クラスター レベルでの診断設定経由</t>
-        </is>
-      </c>
+          <t>時間的制約のないワークロードのスポット ノード プールを検討する</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>低い</t>
@@ -4940,7 +4940,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -4948,7 +4948,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>時間の影響を受けないワークロードのスポット ノード プールを検討する</t>
+          <t>クイック バーストのために AKS 仮想ノードを検討する</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -4986,7 +4986,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -4994,7 +4994,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5010,18 +5010,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>迅速なバーストのために AKS 仮想ノードを検討する</t>
+          <t>Container Insights (または Prometheus などの他のツール) を使用してクラスター メトリックを監視する</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5032,7 +5032,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5040,7 +5040,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>コンテナー インサイト (または Prometheus などの他のツール) を使用してクラスター メトリックを監視する</t>
+          <t>Container Insights(またはTelegraf/ElasticSearchなどの他のツール)を使用してクラスターログを保存および分析します</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5086,7 +5086,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5107,13 +5107,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>クラスター ログをコンテナー インサイト (または Telegraf/ElasticSearch などの他のツール) で保存および分析する</t>
+          <t>ノードの CPU とメモリの使用率を監視する</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5124,7 +5124,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>ノードの CPU とメモリの使用率を監視する</t>
+          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視します</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5170,7 +5170,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5178,7 +5178,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5199,10 +5199,14 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視します</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="n"/>
+          <t>ノード内の OS ディスク キューの深さを監視する</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>OS ディスクの I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生し、通常はノードが NotReady と宣言される可能性があります</t>
+        </is>
+      </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5216,7 +5220,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5224,7 +5228,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5245,14 +5249,10 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>ノード内の OS ディスク キューの深さを監視する</t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>OS ディスクの I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生する可能性があり、通常はノードが NotReady と宣言されます</t>
-        </is>
-      </c>
+          <t>AzFW/NVA でエグレス フィルター処理を使用しない場合は、標準の ALB によって割り当てられた SNAT ポートを監視します</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5266,7 +5266,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5274,7 +5274,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>AzFW/NVA でエグレス フィルター処理を使用していない場合は、標準の ALB によって割り当てられた SNAT ポートを監視します</t>
+          <t>AKS クラスターのリソース正常性通知をサブスクライブするSubscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5312,7 +5312,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5320,7 +5320,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5336,18 +5336,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>リソース</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>AKS クラスターのリソース正常性通知をサブスクライブする</t>
+          <t>ポッド仕様で要求と制限を構成する</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5387,13 +5387,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>ポッドの仕様で要求と制限を構成する</t>
+          <t>名前空間のリソースクォータを適用する</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5412,7 +5412,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5433,13 +5433,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>名前空間のリソース クォータを適用する</t>
+          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5450,7 +5450,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5458,7 +5458,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5474,18 +5474,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>リソース</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
+          <t>Cluster Autoscaler を使用する</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5496,7 +5496,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5504,7 +5504,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5525,13 +5525,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>クラスター オートスケーラーを使用する</t>
+          <t>AKS ノード プールのノード構成をカスタマイズする</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5542,7 +5542,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5550,7 +5550,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5571,13 +5571,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>AKS ノード プールのノード構成をカスタマイズする</t>
+          <t>必要に応じてHorizontal Pod Autoscalerを使用します</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5588,7 +5588,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5596,7 +5596,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5617,13 +5617,17 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて水平ポッド オートスケーラーを使用する</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="n"/>
+          <t>大きすぎず小さすぎない適切なノードサイズを検討してください</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>ノードが大きくなると、パフォーマンスが向上し、エフェメラル ディスクや高速ネットワークなどの機能が提供されますが、爆発半径が大きくなり、スケーリングの粒度が低下します</t>
+        </is>
+      </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5634,7 +5638,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5642,7 +5646,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5663,17 +5667,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>大きすぎたり小さすぎたりしない適切なノードサイズを検討してください</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>ノードが大きいほど、エフェメラル ディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します</t>
-        </is>
-      </c>
+          <t>スケーラビリティのために 5,000 を超えるノードが必要な場合は、追加の AKS クラスターの使用を検討してください</t>
+        </is>
+      </c>
+      <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5692,7 +5692,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>スケーラビリティのために 5,000 を超えるノードが必要な場合は、追加の AKS クラスターの使用を検討してください</t>
+          <t>AKS 自動化のために EventGrid イベントをサブスクライブすることを検討する</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5730,7 +5730,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5738,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>AKS オートメーションのイベント グリッド イベントのサブスクライブを検討する</t>
+          <t>AKS クラスターで実行時間の長い操作を行う場合は、イベントの終了を検討してください</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5776,7 +5776,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -5784,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>AKS クラスターで長時間実行される操作の場合は、イベントの終了を検討してください</t>
+          <t>必要に応じて、AKS ノードに Azure Dedicated Hosts を使用することを検討してください</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5822,14 +5822,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5845,18 +5845,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS ノードに Azure 専用ホストを使用することを検討してください</t>
+          <t>エフェメラル OS ディスクを使用する</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5867,7 +5867,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -5875,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>エフェメラル OS ディスクを使用する</t>
+          <t>非エフェメラル ディスクの場合、複数のポッドを実行するには高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行するときに、ノードに高い IOPS とより大きな OS ディスクを使用します</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5913,7 +5913,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -5942,13 +5942,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>非エフェメラル ディスクの場合、複数のポッドを実行するために高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高 IOPS とより大きな OS ディスクを使用します</t>
+          <t>ハイパー パフォーマンス ストレージ オプションの場合は、AKS 上の Ultra Disks を使用します</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5959,7 +5959,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -5967,7 +5967,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -5988,13 +5988,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>ハイパー パフォーマンス ストレージ オプションの場合は、AKS で Ultra ディスクを使用します</t>
+          <t>クラスター内に状態を保持することは避け、外部 (AzStorage、AzSQL、Cosmos など) にデータを格納します</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6005,14 +6005,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>クラスター内に状態を保持することは避け、データを外部 (AzStorage、AzSQL、Cosmos など) に格納します</t>
+          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6050,14 +6050,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください</t>
+          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンでストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6095,14 +6095,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6111,46 +6111,17 @@
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
@@ -9042,7 +9013,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F118" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9133,7 +9104,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -9170,12 +9141,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -9197,12 +9168,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -9214,7 +9185,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9224,7 +9195,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/aks_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ja.xlsx
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>ポッドとデプロイ定義での Disruption Budgets の使用</t>
+          <t>ポッドとデプロイ定義でのディスラプション バジェットの使用</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>プライベートレジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョンレプリケーションを構成します</t>
+          <t>プライベート レジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョン レプリケーションを構成します</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>認証を AAD と統合する (マネージド統合を使用)</t>
+          <t>認証と AAD の統合 (マネージド統合を使用)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>POD ID アクセス管理には、Azure AD ワークロード ID (プレビュー) を使用します</t>
+          <t>ポッド ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>非エフェメラル ディスクの場合、複数のポッドを実行するには高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行するときに、ノードに高い IOPS とより大きな OS ディスクを使用します</t>
+          <t>非エフェメラル ディスクの場合、複数のポッドを実行するには高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高い IOPS とより大きな OS ディスクを使用します</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンでストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください</t>
+          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.ja.xlsx
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>AKS Application Routing Add-On を使用しない</t>
+          <t>AKS HTTP ルーティング アドオンを使用せず、代わりにアプリケーション ルーティング アドオンでマネージド NGINX イングレスを使用します。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
